--- a/Final report/Testing Spreadsheet v1.0 RegistrationPage.xlsx
+++ b/Final report/Testing Spreadsheet v1.0 RegistrationPage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\Final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
@@ -1542,11 +1542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1922007200"/>
-        <c:axId val="52515632"/>
+        <c:axId val="-1559827120"/>
+        <c:axId val="-1559828208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1922007200"/>
+        <c:axId val="-1559827120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52515632"/>
+        <c:crossAx val="-1559828208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1564,7 +1564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52515632"/>
+        <c:axId val="-1559828208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1922007200"/>
+        <c:crossAx val="-1559827120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2249,8 +2249,8 @@
   </sheetPr>
   <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2428,7 @@
         <v>85</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" s="35" t="s">
         <v>35</v>
@@ -2436,9 +2436,7 @@
       <c r="M4" s="33">
         <v>42074</v>
       </c>
-      <c r="N4" s="40">
-        <v>42074</v>
-      </c>
+      <c r="N4" s="40"/>
       <c r="O4" s="22" t="s">
         <v>199</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>91</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10" s="34" t="s">
         <v>34</v>
@@ -2663,9 +2661,7 @@
       <c r="M10" s="33">
         <v>42074</v>
       </c>
-      <c r="N10" s="40">
-        <v>42074</v>
-      </c>
+      <c r="N10" s="40"/>
       <c r="O10" s="22" t="s">
         <v>200</v>
       </c>
@@ -3087,7 +3083,7 @@
         <v>242</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L21" s="34" t="s">
         <v>54</v>
@@ -3095,9 +3091,7 @@
       <c r="M21" s="33">
         <v>42074</v>
       </c>
-      <c r="N21" s="40">
-        <v>42074</v>
-      </c>
+      <c r="N21" s="40"/>
       <c r="O21" s="22" t="s">
         <v>243</v>
       </c>
@@ -6128,15 +6122,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -6250,6 +6235,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
@@ -6266,14 +6260,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6287,4 +6273,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>